--- a/RPS Disain Web.xlsx
+++ b/RPS Disain Web.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SAP-RPS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">teori!$28:$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="111">
   <si>
     <t>KEMENTRIAN RISET, TEKNOLOGI DAN PENDIDIKAN TINGGI</t>
   </si>
@@ -428,6 +423,9 @@
   </si>
   <si>
     <t>11 - 12</t>
+  </si>
+  <si>
+    <t>: Dinna Yunika Hardiyanti, M.T. , Dedy</t>
   </si>
 </sst>
 </file>
@@ -586,6 +584,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -621,19 +632,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -715,13 +713,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>122589</xdr:colOff>
+      <xdr:colOff>151164</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1252842</xdr:colOff>
+      <xdr:colOff>1281417</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>125795</xdr:rowOff>
     </xdr:to>
@@ -746,7 +744,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="265464" y="0"/>
+          <a:off x="294039" y="0"/>
           <a:ext cx="1444578" cy="1364045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -802,7 +800,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -837,7 +835,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1014,7 +1012,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1041,95 +1039,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -1202,16 +1200,16 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1233,16 +1231,16 @@
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1259,29 +1257,29 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1298,22 +1296,22 @@
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="6" t="s">
         <v>26</v>
       </c>
@@ -1337,10 +1335,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="26"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="7" t="s">
         <v>34</v>
       </c>
@@ -1364,10 +1362,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
+      <c r="A30" s="32">
         <v>1</v>
       </c>
-      <c r="B30" s="27"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="10" t="s">
         <v>41</v>
       </c>
@@ -1391,10 +1389,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
+      <c r="A31" s="32">
         <v>2</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="10" t="s">
         <v>45</v>
       </c>
@@ -1418,10 +1416,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
+      <c r="A32" s="32">
         <v>3</v>
       </c>
-      <c r="B32" s="27"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="10" t="s">
         <v>46</v>
       </c>
@@ -1445,10 +1443,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="27">
+      <c r="A33" s="32">
         <v>4</v>
       </c>
-      <c r="B33" s="27"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="10" t="s">
         <v>54</v>
       </c>
@@ -1472,10 +1470,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
+      <c r="A34" s="32">
         <v>5</v>
       </c>
-      <c r="B34" s="27"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="10" t="s">
         <v>58</v>
       </c>
@@ -1499,10 +1497,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="27">
+      <c r="A35" s="32">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="10" t="s">
         <v>62</v>
       </c>
@@ -1526,10 +1524,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="27">
+      <c r="A36" s="32">
         <v>7</v>
       </c>
-      <c r="B36" s="27"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
@@ -1547,10 +1545,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="27">
+      <c r="A37" s="32">
         <v>8</v>
       </c>
-      <c r="B37" s="27"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="10" t="s">
         <v>69</v>
       </c>
@@ -1574,10 +1572,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
+      <c r="A38" s="32">
         <v>9</v>
       </c>
-      <c r="B38" s="27"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="10" t="s">
         <v>72</v>
       </c>
@@ -1601,10 +1599,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
+      <c r="A39" s="32">
         <v>10</v>
       </c>
-      <c r="B39" s="27"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="10" t="s">
         <v>71</v>
       </c>
@@ -1631,7 +1629,7 @@
       <c r="A40" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="27"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="10" t="s">
         <v>81</v>
       </c>
@@ -1655,10 +1653,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="27">
+      <c r="A41" s="32">
         <v>13</v>
       </c>
-      <c r="B41" s="27"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="10" t="s">
         <v>85</v>
       </c>
@@ -1682,10 +1680,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="27">
+      <c r="A42" s="32">
         <v>14</v>
       </c>
-      <c r="B42" s="27"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="10" t="s">
         <v>89</v>
       </c>
@@ -1709,10 +1707,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="27">
+      <c r="A43" s="32">
         <v>15</v>
       </c>
-      <c r="B43" s="27"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="10" t="s">
         <v>85</v>
       </c>
@@ -1736,10 +1734,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="27">
+      <c r="A44" s="32">
         <v>16</v>
       </c>
-      <c r="B44" s="27"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
@@ -1755,15 +1753,15 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="32"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="20"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C46" s="9"/>
@@ -1832,9 +1830,9 @@
         <v>99</v>
       </c>
       <c r="H52" s="1"/>
-      <c r="I52" s="28"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
+      <c r="I52" s="16"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
@@ -1847,9 +1845,9 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="28"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
+      <c r="I53" s="16"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
@@ -1860,9 +1858,9 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="28"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
+      <c r="I54" s="16"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
@@ -1873,9 +1871,9 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="28"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
+      <c r="I55" s="16"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
@@ -1886,9 +1884,9 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="28"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
+      <c r="I56" s="16"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
@@ -1903,9 +1901,9 @@
         <v>103</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="28"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
+      <c r="I57" s="16"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
@@ -1920,9 +1918,9 @@
         <v>104</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="28"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
+      <c r="I58" s="16"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -1966,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1983,95 +1981,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -2118,7 +2116,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2144,16 +2142,16 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -2175,16 +2173,16 @@
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -2201,29 +2199,29 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2240,22 +2238,22 @@
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="13" t="s">
         <v>26</v>
       </c>
@@ -2279,10 +2277,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="26"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="12" t="s">
         <v>34</v>
       </c>
@@ -2697,15 +2695,15 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="32"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="20"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C46" s="9"/>
@@ -2774,9 +2772,9 @@
         <v>99</v>
       </c>
       <c r="H52" s="1"/>
-      <c r="I52" s="28"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
+      <c r="I52" s="16"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
@@ -2789,9 +2787,9 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="28"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
+      <c r="I53" s="16"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
@@ -2802,9 +2800,9 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="28"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
+      <c r="I54" s="16"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
@@ -2815,9 +2813,9 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="28"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
+      <c r="I55" s="16"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
@@ -2828,9 +2826,9 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="28"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
+      <c r="I56" s="16"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
@@ -2845,9 +2843,9 @@
         <v>103</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="28"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
+      <c r="I57" s="16"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
@@ -2862,9 +2860,9 @@
         <v>104</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="28"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
+      <c r="I58" s="16"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -2873,11 +2871,6 @@
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -2885,11 +2878,11 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -2897,6 +2890,11 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/RPS Disain Web.xlsx
+++ b/RPS Disain Web.xlsx
@@ -425,7 +425,7 @@
     <t>11 - 12</t>
   </si>
   <si>
-    <t>: Dinna Yunika Hardiyanti, M.T. , Dedy</t>
+    <t>: Dinna Yunika Hardiyanti, M.T. , Dedy Kurniawan</t>
   </si>
 </sst>
 </file>
@@ -597,6 +597,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -615,31 +636,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1012,7 +1012,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1039,95 +1039,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -1200,16 +1200,16 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1231,16 +1231,16 @@
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1257,29 +1257,29 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1296,22 +1296,22 @@
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="6" t="s">
         <v>26</v>
       </c>
@@ -1335,10 +1335,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="31"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="7" t="s">
         <v>34</v>
       </c>
@@ -1362,10 +1362,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="A30" s="21">
         <v>1</v>
       </c>
-      <c r="B30" s="32"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="10" t="s">
         <v>41</v>
       </c>
@@ -1389,10 +1389,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
+      <c r="A31" s="21">
         <v>2</v>
       </c>
-      <c r="B31" s="32"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="10" t="s">
         <v>45</v>
       </c>
@@ -1416,10 +1416,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
+      <c r="A32" s="21">
         <v>3</v>
       </c>
-      <c r="B32" s="32"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="10" t="s">
         <v>46</v>
       </c>
@@ -1443,10 +1443,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="32">
+      <c r="A33" s="21">
         <v>4</v>
       </c>
-      <c r="B33" s="32"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="10" t="s">
         <v>54</v>
       </c>
@@ -1470,10 +1470,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
+      <c r="A34" s="21">
         <v>5</v>
       </c>
-      <c r="B34" s="32"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="10" t="s">
         <v>58</v>
       </c>
@@ -1497,10 +1497,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="32">
+      <c r="A35" s="21">
         <v>6</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="10" t="s">
         <v>62</v>
       </c>
@@ -1524,10 +1524,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="32">
+      <c r="A36" s="21">
         <v>7</v>
       </c>
-      <c r="B36" s="32"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
@@ -1545,10 +1545,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="32">
+      <c r="A37" s="21">
         <v>8</v>
       </c>
-      <c r="B37" s="32"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="10" t="s">
         <v>69</v>
       </c>
@@ -1572,10 +1572,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="32">
+      <c r="A38" s="21">
         <v>9</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="10" t="s">
         <v>72</v>
       </c>
@@ -1599,10 +1599,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="32">
+      <c r="A39" s="21">
         <v>10</v>
       </c>
-      <c r="B39" s="32"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="10" t="s">
         <v>71</v>
       </c>
@@ -1626,10 +1626,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="32"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="10" t="s">
         <v>81</v>
       </c>
@@ -1653,10 +1653,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
+      <c r="A41" s="21">
         <v>13</v>
       </c>
-      <c r="B41" s="32"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="10" t="s">
         <v>85</v>
       </c>
@@ -1680,10 +1680,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="32">
+      <c r="A42" s="21">
         <v>14</v>
       </c>
-      <c r="B42" s="32"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="10" t="s">
         <v>89</v>
       </c>
@@ -1707,10 +1707,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="32">
+      <c r="A43" s="21">
         <v>15</v>
       </c>
-      <c r="B43" s="32"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="10" t="s">
         <v>85</v>
       </c>
@@ -1734,10 +1734,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="32">
+      <c r="A44" s="21">
         <v>16</v>
       </c>
-      <c r="B44" s="32"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
@@ -1924,27 +1924,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A1:I1"/>
@@ -1953,6 +1932,27 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1965,7 +1965,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I11"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,95 +1981,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -2142,16 +2142,16 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -2173,16 +2173,16 @@
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -2199,29 +2199,29 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2238,22 +2238,22 @@
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="13" t="s">
         <v>26</v>
       </c>
@@ -2277,10 +2277,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="31"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="12" t="s">
         <v>34</v>
       </c>
@@ -2304,10 +2304,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
+      <c r="A30" s="35">
         <v>1</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="10" t="s">
         <v>41</v>
       </c>
@@ -2331,10 +2331,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+      <c r="A31" s="35">
         <v>2</v>
       </c>
-      <c r="B31" s="34"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="10" t="s">
         <v>45</v>
       </c>
@@ -2358,10 +2358,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
+      <c r="A32" s="35">
         <v>3</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="10" t="s">
         <v>46</v>
       </c>
@@ -2385,10 +2385,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
+      <c r="A33" s="35">
         <v>4</v>
       </c>
-      <c r="B33" s="34"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="10" t="s">
         <v>54</v>
       </c>
@@ -2412,10 +2412,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="34">
+      <c r="A34" s="35">
         <v>5</v>
       </c>
-      <c r="B34" s="34"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="10" t="s">
         <v>58</v>
       </c>
@@ -2439,10 +2439,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
+      <c r="A35" s="35">
         <v>6</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="10" t="s">
         <v>62</v>
       </c>
@@ -2466,10 +2466,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="34">
+      <c r="A36" s="35">
         <v>7</v>
       </c>
-      <c r="B36" s="34"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
@@ -2487,10 +2487,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="34">
+      <c r="A37" s="35">
         <v>8</v>
       </c>
-      <c r="B37" s="34"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="10" t="s">
         <v>69</v>
       </c>
@@ -2514,10 +2514,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
+      <c r="A38" s="35">
         <v>9</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="10" t="s">
         <v>72</v>
       </c>
@@ -2541,10 +2541,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="34">
+      <c r="A39" s="35">
         <v>10</v>
       </c>
-      <c r="B39" s="34"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="10" t="s">
         <v>71</v>
       </c>
@@ -2568,10 +2568,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="34"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="10" t="s">
         <v>81</v>
       </c>
@@ -2595,10 +2595,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="34">
+      <c r="A41" s="35">
         <v>13</v>
       </c>
-      <c r="B41" s="34"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="10" t="s">
         <v>85</v>
       </c>
@@ -2622,10 +2622,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="34">
+      <c r="A42" s="35">
         <v>14</v>
       </c>
-      <c r="B42" s="34"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="10" t="s">
         <v>89</v>
       </c>
@@ -2649,10 +2649,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="34">
+      <c r="A43" s="35">
         <v>15</v>
       </c>
-      <c r="B43" s="34"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="10" t="s">
         <v>85</v>
       </c>
@@ -2676,10 +2676,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="34">
+      <c r="A44" s="35">
         <v>16</v>
       </c>
-      <c r="B44" s="34"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
@@ -2866,11 +2866,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -2883,18 +2890,11 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/RPS Disain Web.xlsx
+++ b/RPS Disain Web.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Pak Fai\RPS1\RPS-KA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Praktikum" sheetId="1" r:id="rId1"/>
@@ -351,9 +356,6 @@
     <t>Mahasiswa dapat membuat website dengan DHTML</t>
   </si>
   <si>
-    <t>: Praktikum Disain Web</t>
-  </si>
-  <si>
     <t>1 JP</t>
   </si>
   <si>
@@ -385,9 +387,6 @@
   </si>
   <si>
     <t>NIPUS. 198806282015012201</t>
-  </si>
-  <si>
-    <t>: Disain Web</t>
   </si>
   <si>
     <r>
@@ -427,11 +426,17 @@
   <si>
     <t>: Dinna Yunika Hardiyanti, M.T. , Dedy Kurniawan</t>
   </si>
+  <si>
+    <t>: Disain Web / FKA002117</t>
+  </si>
+  <si>
+    <t>: Praktikum Desain Web / FKA003117</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -597,27 +602,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -636,10 +620,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1012,7 +1017,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1022,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection sqref="A1:XFD58"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,95 +1044,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -1154,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1200,16 +1205,16 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="B17" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1231,16 +1236,16 @@
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1257,29 +1262,29 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1296,22 +1301,22 @@
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="6" t="s">
         <v>26</v>
       </c>
@@ -1335,10 +1340,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="7" t="s">
         <v>34</v>
       </c>
@@ -1362,10 +1367,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
+      <c r="A30" s="32">
         <v>1</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="10" t="s">
         <v>41</v>
       </c>
@@ -1385,14 +1390,14 @@
         <v>50</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
+      <c r="A31" s="32">
         <v>2</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="10" t="s">
         <v>45</v>
       </c>
@@ -1412,14 +1417,14 @@
         <v>51</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="21">
+      <c r="A32" s="32">
         <v>3</v>
       </c>
-      <c r="B32" s="21"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="10" t="s">
         <v>46</v>
       </c>
@@ -1439,14 +1444,14 @@
         <v>53</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
+      <c r="A33" s="32">
         <v>4</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="10" t="s">
         <v>54</v>
       </c>
@@ -1466,14 +1471,14 @@
         <v>57</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="21">
+      <c r="A34" s="32">
         <v>5</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="10" t="s">
         <v>58</v>
       </c>
@@ -1493,14 +1498,14 @@
         <v>61</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="21">
+      <c r="A35" s="32">
         <v>6</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="10" t="s">
         <v>62</v>
       </c>
@@ -1520,14 +1525,14 @@
         <v>65</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="21">
+      <c r="A36" s="32">
         <v>7</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
@@ -1541,14 +1546,14 @@
         <v>68</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="21">
+      <c r="A37" s="32">
         <v>8</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="10" t="s">
         <v>69</v>
       </c>
@@ -1556,7 +1561,7 @@
         <v>73</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>47</v>
@@ -1568,14 +1573,14 @@
         <v>70</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
+      <c r="A38" s="32">
         <v>9</v>
       </c>
-      <c r="B38" s="21"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="10" t="s">
         <v>72</v>
       </c>
@@ -1595,14 +1600,14 @@
         <v>80</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="21">
+      <c r="A39" s="32">
         <v>10</v>
       </c>
-      <c r="B39" s="21"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="10" t="s">
         <v>71</v>
       </c>
@@ -1622,14 +1627,14 @@
         <v>79</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="21"/>
+      <c r="A40" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="32"/>
       <c r="C40" s="10" t="s">
         <v>81</v>
       </c>
@@ -1649,14 +1654,14 @@
         <v>84</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
+      <c r="A41" s="32">
         <v>13</v>
       </c>
-      <c r="B41" s="21"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="10" t="s">
         <v>85</v>
       </c>
@@ -1676,14 +1681,14 @@
         <v>88</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="21">
+      <c r="A42" s="32">
         <v>14</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="10" t="s">
         <v>89</v>
       </c>
@@ -1703,14 +1708,14 @@
         <v>88</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
+      <c r="A43" s="32">
         <v>15</v>
       </c>
-      <c r="B43" s="21"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="10" t="s">
         <v>85</v>
       </c>
@@ -1730,18 +1735,18 @@
         <v>88</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="21">
+      <c r="A44" s="32">
         <v>16</v>
       </c>
-      <c r="B44" s="21"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>67</v>
@@ -1749,7 +1754,7 @@
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1774,7 +1779,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -1786,7 +1791,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -1798,7 +1803,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -1821,13 +1826,13 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="16"/>
@@ -1838,7 +1843,7 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1892,13 +1897,13 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="16"/>
@@ -1909,13 +1914,13 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="16"/>
@@ -1924,6 +1929,27 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A1:I1"/>
@@ -1932,27 +1958,6 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1964,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,95 +1986,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -2096,7 +2101,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2116,7 +2121,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2142,16 +2147,16 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="B17" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -2173,16 +2178,16 @@
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -2199,29 +2204,29 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2238,22 +2243,22 @@
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="13" t="s">
         <v>26</v>
       </c>
@@ -2277,10 +2282,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="12" t="s">
         <v>34</v>
       </c>
@@ -2304,10 +2309,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
+      <c r="A30" s="34">
         <v>1</v>
       </c>
-      <c r="B30" s="35"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="10" t="s">
         <v>41</v>
       </c>
@@ -2327,14 +2332,14 @@
         <v>50</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="35">
+      <c r="A31" s="34">
         <v>2</v>
       </c>
-      <c r="B31" s="35"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="10" t="s">
         <v>45</v>
       </c>
@@ -2354,14 +2359,14 @@
         <v>51</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="35">
+      <c r="A32" s="34">
         <v>3</v>
       </c>
-      <c r="B32" s="35"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="10" t="s">
         <v>46</v>
       </c>
@@ -2381,14 +2386,14 @@
         <v>53</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="35">
+      <c r="A33" s="34">
         <v>4</v>
       </c>
-      <c r="B33" s="35"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="10" t="s">
         <v>54</v>
       </c>
@@ -2408,14 +2413,14 @@
         <v>57</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="35">
+      <c r="A34" s="34">
         <v>5</v>
       </c>
-      <c r="B34" s="35"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="10" t="s">
         <v>58</v>
       </c>
@@ -2435,14 +2440,14 @@
         <v>61</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="35">
+      <c r="A35" s="34">
         <v>6</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="10" t="s">
         <v>62</v>
       </c>
@@ -2462,14 +2467,14 @@
         <v>65</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="35">
+      <c r="A36" s="34">
         <v>7</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
@@ -2483,14 +2488,14 @@
         <v>68</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="35">
+      <c r="A37" s="34">
         <v>8</v>
       </c>
-      <c r="B37" s="35"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="10" t="s">
         <v>69</v>
       </c>
@@ -2498,7 +2503,7 @@
         <v>73</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>47</v>
@@ -2510,14 +2515,14 @@
         <v>70</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="35">
+      <c r="A38" s="34">
         <v>9</v>
       </c>
-      <c r="B38" s="35"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="10" t="s">
         <v>72</v>
       </c>
@@ -2537,14 +2542,14 @@
         <v>80</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="35">
+      <c r="A39" s="34">
         <v>10</v>
       </c>
-      <c r="B39" s="35"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="10" t="s">
         <v>71</v>
       </c>
@@ -2564,14 +2569,14 @@
         <v>79</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="35"/>
+      <c r="A40" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="34"/>
       <c r="C40" s="10" t="s">
         <v>81</v>
       </c>
@@ -2591,14 +2596,14 @@
         <v>84</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="35">
+      <c r="A41" s="34">
         <v>13</v>
       </c>
-      <c r="B41" s="35"/>
+      <c r="B41" s="34"/>
       <c r="C41" s="10" t="s">
         <v>85</v>
       </c>
@@ -2618,14 +2623,14 @@
         <v>88</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="35">
+      <c r="A42" s="34">
         <v>14</v>
       </c>
-      <c r="B42" s="35"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="10" t="s">
         <v>89</v>
       </c>
@@ -2645,14 +2650,14 @@
         <v>88</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="35">
+      <c r="A43" s="34">
         <v>15</v>
       </c>
-      <c r="B43" s="35"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="10" t="s">
         <v>85</v>
       </c>
@@ -2672,18 +2677,18 @@
         <v>88</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="35">
+      <c r="A44" s="34">
         <v>16</v>
       </c>
-      <c r="B44" s="35"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>67</v>
@@ -2691,7 +2696,7 @@
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2716,7 +2721,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -2728,7 +2733,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -2740,7 +2745,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2763,13 +2768,13 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="16"/>
@@ -2780,7 +2785,7 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2834,13 +2839,13 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="16"/>
@@ -2851,13 +2856,13 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="16"/>
@@ -2866,6 +2871,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -2878,23 +2900,6 @@
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="B24:I24"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/RPS Disain Web.xlsx
+++ b/RPS Disain Web.xlsx
@@ -602,6 +602,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -620,31 +641,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -805,7 +805,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -840,7 +840,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,95 +1044,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -1205,16 +1205,16 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1236,16 +1236,16 @@
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1262,29 +1262,29 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1301,22 +1301,22 @@
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="6" t="s">
         <v>26</v>
       </c>
@@ -1340,10 +1340,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="31"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="7" t="s">
         <v>34</v>
       </c>
@@ -1367,10 +1367,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="A30" s="21">
         <v>1</v>
       </c>
-      <c r="B30" s="32"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="10" t="s">
         <v>41</v>
       </c>
@@ -1394,10 +1394,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
+      <c r="A31" s="21">
         <v>2</v>
       </c>
-      <c r="B31" s="32"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="10" t="s">
         <v>45</v>
       </c>
@@ -1421,10 +1421,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
+      <c r="A32" s="21">
         <v>3</v>
       </c>
-      <c r="B32" s="32"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="10" t="s">
         <v>46</v>
       </c>
@@ -1448,10 +1448,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="32">
+      <c r="A33" s="21">
         <v>4</v>
       </c>
-      <c r="B33" s="32"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="10" t="s">
         <v>54</v>
       </c>
@@ -1475,10 +1475,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
+      <c r="A34" s="21">
         <v>5</v>
       </c>
-      <c r="B34" s="32"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="10" t="s">
         <v>58</v>
       </c>
@@ -1502,10 +1502,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="32">
+      <c r="A35" s="21">
         <v>6</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="10" t="s">
         <v>62</v>
       </c>
@@ -1529,10 +1529,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="32">
+      <c r="A36" s="21">
         <v>7</v>
       </c>
-      <c r="B36" s="32"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
@@ -1550,10 +1550,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="32">
+      <c r="A37" s="21">
         <v>8</v>
       </c>
-      <c r="B37" s="32"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="10" t="s">
         <v>69</v>
       </c>
@@ -1577,10 +1577,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="32">
+      <c r="A38" s="21">
         <v>9</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="10" t="s">
         <v>72</v>
       </c>
@@ -1604,10 +1604,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="32">
+      <c r="A39" s="21">
         <v>10</v>
       </c>
-      <c r="B39" s="32"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="10" t="s">
         <v>71</v>
       </c>
@@ -1631,10 +1631,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="32"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="10" t="s">
         <v>81</v>
       </c>
@@ -1658,10 +1658,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
+      <c r="A41" s="21">
         <v>13</v>
       </c>
-      <c r="B41" s="32"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="10" t="s">
         <v>85</v>
       </c>
@@ -1685,10 +1685,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="32">
+      <c r="A42" s="21">
         <v>14</v>
       </c>
-      <c r="B42" s="32"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="10" t="s">
         <v>89</v>
       </c>
@@ -1712,10 +1712,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="32">
+      <c r="A43" s="21">
         <v>15</v>
       </c>
-      <c r="B43" s="32"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="10" t="s">
         <v>85</v>
       </c>
@@ -1739,10 +1739,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="32">
+      <c r="A44" s="21">
         <v>16</v>
       </c>
-      <c r="B44" s="32"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
@@ -1929,27 +1929,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A1:I1"/>
@@ -1958,6 +1937,27 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1986,95 +1986,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -2147,16 +2147,16 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -2178,16 +2178,16 @@
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -2204,29 +2204,29 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2243,22 +2243,22 @@
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="13" t="s">
         <v>26</v>
       </c>
@@ -2282,10 +2282,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="31"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="12" t="s">
         <v>34</v>
       </c>
@@ -2309,10 +2309,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
+      <c r="A30" s="35">
         <v>1</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="10" t="s">
         <v>41</v>
       </c>
@@ -2336,10 +2336,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+      <c r="A31" s="35">
         <v>2</v>
       </c>
-      <c r="B31" s="34"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="10" t="s">
         <v>45</v>
       </c>
@@ -2363,10 +2363,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
+      <c r="A32" s="35">
         <v>3</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="10" t="s">
         <v>46</v>
       </c>
@@ -2390,10 +2390,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
+      <c r="A33" s="35">
         <v>4</v>
       </c>
-      <c r="B33" s="34"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="10" t="s">
         <v>54</v>
       </c>
@@ -2417,10 +2417,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="34">
+      <c r="A34" s="35">
         <v>5</v>
       </c>
-      <c r="B34" s="34"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="10" t="s">
         <v>58</v>
       </c>
@@ -2444,10 +2444,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
+      <c r="A35" s="35">
         <v>6</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="10" t="s">
         <v>62</v>
       </c>
@@ -2471,10 +2471,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="34">
+      <c r="A36" s="35">
         <v>7</v>
       </c>
-      <c r="B36" s="34"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
@@ -2492,10 +2492,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="34">
+      <c r="A37" s="35">
         <v>8</v>
       </c>
-      <c r="B37" s="34"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="10" t="s">
         <v>69</v>
       </c>
@@ -2519,10 +2519,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
+      <c r="A38" s="35">
         <v>9</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="10" t="s">
         <v>72</v>
       </c>
@@ -2546,10 +2546,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="34">
+      <c r="A39" s="35">
         <v>10</v>
       </c>
-      <c r="B39" s="34"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="10" t="s">
         <v>71</v>
       </c>
@@ -2573,10 +2573,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="34"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="10" t="s">
         <v>81</v>
       </c>
@@ -2600,10 +2600,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="34">
+      <c r="A41" s="35">
         <v>13</v>
       </c>
-      <c r="B41" s="34"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="10" t="s">
         <v>85</v>
       </c>
@@ -2627,10 +2627,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="34">
+      <c r="A42" s="35">
         <v>14</v>
       </c>
-      <c r="B42" s="34"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="10" t="s">
         <v>89</v>
       </c>
@@ -2654,10 +2654,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="34">
+      <c r="A43" s="35">
         <v>15</v>
       </c>
-      <c r="B43" s="34"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="10" t="s">
         <v>85</v>
       </c>
@@ -2681,10 +2681,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="34">
+      <c r="A44" s="35">
         <v>16</v>
       </c>
-      <c r="B44" s="34"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
@@ -2871,11 +2871,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -2888,18 +2895,11 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
